--- a/HALYSHUKLA AU1920192 TUTORIAL 4 OUTPUT.xlsx
+++ b/HALYSHUKLA AU1920192 TUTORIAL 4 OUTPUT.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\psychopy Ly\tutorial 4\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="575900_HALYSHUKLA TUTORIAL 4_20" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>key_resp.corr</t>
   </si>
@@ -38,12 +33,15 @@
   <si>
     <t>RanRT mean</t>
   </si>
+  <si>
+    <t xml:space="preserve">DIFFERENCE </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,9 +533,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,21 +597,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -625,7 +613,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -641,12 +629,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -680,7 +666,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>1.0818851605204101</c:v>
+                  <c:v>0.51885160520410001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.57985099032521203</c:v>
@@ -689,7 +675,7 @@
                   <c:v>0.48379474779085202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55128144199034002</c:v>
+                  <c:v>0.45128144199033998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40812850686552299</c:v>
@@ -701,13 +687,13 @@
                   <c:v>0.503483498770947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57134874152325199</c:v>
+                  <c:v>0.47134874152325201</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.41160306336132602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59355964015958296</c:v>
+                  <c:v>0.49355964015958298</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.43263062042797101</c:v>
@@ -746,7 +732,7 @@
                   <c:v>0.35570406035685598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52452614948015197</c:v>
+                  <c:v>0.32452614948015202</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.44674076115234101</c:v>
@@ -770,7 +756,7 @@
                   <c:v>0.48664865370847099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.649553129365813</c:v>
+                  <c:v>0.44955312936581299</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.47014677439892599</c:v>
@@ -779,19 +765,19 @@
                   <c:v>0.45751701812832801</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.638673631875462</c:v>
+                  <c:v>0.53867363187546202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61998981561146105</c:v>
+                  <c:v>0.41998981561146098</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.45717499619013302</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65403684679722496</c:v>
+                  <c:v>0.55403684679722498</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.71359877495569801</c:v>
+                  <c:v>0.41359877495569802</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.49948730599089602</c:v>
@@ -826,7 +812,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1007,30 +992,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1301025984"/>
-        <c:axId val="1301019456"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="81510400"/>
+        <c:axId val="81511936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1301025984"/>
+        <c:axId val="81510400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1050,7 +1025,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1065,19 +1040,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1301019456"/>
+        <c:crossAx val="81511936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1301019456"/>
+        <c:axId val="81511936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1095,7 +1068,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1109,7 +1081,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1124,7 +1096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1301025984"/>
+        <c:crossAx val="81510400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,7 +1111,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1152,7 +1123,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1170,7 +1141,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1199,7 +1169,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1839,7 +1809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1874,7 +1844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,28 +2021,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2086,21 +2057,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0818851605204101</v>
+        <v>0.55188516052041003</v>
       </c>
       <c r="E2">
-        <v>1.0818851605204101</v>
+        <v>0.51885160520410001</v>
       </c>
       <c r="F2">
         <v>0.491859884706627</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2114,7 +2085,7 @@
         <v>0.46364684820718999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2128,15 +2099,15 @@
         <v>0.436681150320964</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.55128144199034002</v>
+        <v>0.45128144199033998</v>
       </c>
       <c r="E5">
-        <v>0.55128144199034002</v>
+        <v>0.45128144199033998</v>
       </c>
       <c r="F5">
         <v>0.504635445563963</v>
@@ -2146,10 +2117,17 @@
       </c>
       <c r="J5" s="1">
         <f>AVERAGE(E2:E49)</f>
-        <v>0.48328333116091898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.44238679875849574</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2">
+        <f>J6-J5</f>
+        <v>2.4768346524434603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2170,7 +2148,7 @@
         <v>0.46715514528293034</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2184,7 +2162,7 @@
         <v>0.39533362614611101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2198,21 +2176,21 @@
         <v>0.45094826492640999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.57134874152325199</v>
+        <v>0.47134874152325201</v>
       </c>
       <c r="E9">
-        <v>0.57134874152325199</v>
+        <v>0.47134874152325201</v>
       </c>
       <c r="F9">
         <v>0.39179386511477698</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2226,21 +2204,21 @@
         <v>0.44943286322313702</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.59355964015958296</v>
+        <v>0.49355964015958298</v>
       </c>
       <c r="E11">
-        <v>0.59355964015958296</v>
+        <v>0.49355964015958298</v>
       </c>
       <c r="F11">
         <v>0.42099885579727903</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2254,7 +2232,7 @@
         <v>0.42736082609735598</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2268,7 +2246,7 @@
         <v>0.43317821777691201</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2282,7 +2260,7 @@
         <v>0.50357466437117104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2296,7 +2274,7 @@
         <v>0.37885921726592597</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2310,7 +2288,7 @@
         <v>0.40282611026668702</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2324,7 +2302,7 @@
         <v>0.44195577461778102</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2338,7 +2316,7 @@
         <v>0.44750389571527099</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2352,7 +2330,7 @@
         <v>0.46942378892481401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2366,7 +2344,7 @@
         <v>0.50441205965535096</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2380,7 +2358,7 @@
         <v>0.41116715896669098</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2394,7 +2372,7 @@
         <v>0.46648988670222002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2408,21 +2386,21 @@
         <v>0.45469812946112098</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0.52452614948015197</v>
+        <v>0.32452614948015202</v>
       </c>
       <c r="E24">
-        <v>0.52452614948015197</v>
+        <v>0.32452614948015202</v>
       </c>
       <c r="F24">
         <v>0.47490398863192201</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2436,7 +2414,7 @@
         <v>0.43270699425875098</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2450,7 +2428,7 @@
         <v>0.37351757719670697</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2464,7 +2442,7 @@
         <v>0.41429788228742798</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2478,7 +2456,7 @@
         <v>0.46946423988674701</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2492,7 +2470,7 @@
         <v>0.48901865744892298</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2506,7 +2484,7 @@
         <v>0.49153476764786302</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2520,21 +2498,21 @@
         <v>0.38337523509198901</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0.649553129365813</v>
+        <v>0.44955312936581299</v>
       </c>
       <c r="E32">
-        <v>0.649553129365813</v>
+        <v>0.44955312936581299</v>
       </c>
       <c r="F32">
         <v>0.51992439976447702</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2548,7 +2526,7 @@
         <v>0.64911571560742198</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2562,35 +2540,35 @@
         <v>0.61415853778044005</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.638673631875462</v>
+        <v>0.53867363187546202</v>
       </c>
       <c r="E35">
-        <v>0.638673631875462</v>
+        <v>0.53867363187546202</v>
       </c>
       <c r="F35">
         <v>0.51651625529575496</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0.61998981561146105</v>
+        <v>0.41998981561146098</v>
       </c>
       <c r="E36">
-        <v>0.61998981561146105</v>
+        <v>0.41998981561146098</v>
       </c>
       <c r="F36">
         <v>0.53570510483723399</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2604,35 +2582,35 @@
         <v>0.52004303579451505</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.65403684679722496</v>
+        <v>0.55403684679722498</v>
       </c>
       <c r="E38">
-        <v>0.65403684679722496</v>
+        <v>0.55403684679722498</v>
       </c>
       <c r="F38">
         <v>0.50632865037596197</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0.71359877495569801</v>
+        <v>0.41359877495569802</v>
       </c>
       <c r="E39">
-        <v>0.71359877495569801</v>
+        <v>0.41359877495569802</v>
       </c>
       <c r="F39">
         <v>0.46054601029845799</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2646,7 +2624,7 @@
         <v>0.417047038326472</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2660,7 +2638,7 @@
         <v>0.42478132259930101</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2674,7 +2652,7 @@
         <v>0.558173501013698</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2688,7 +2666,7 @@
         <v>0.446883547010202</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2702,7 +2680,7 @@
         <v>0.54870344785695102</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2716,7 +2694,7 @@
         <v>0.35718836915748398</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2730,7 +2708,7 @@
         <v>0.382412864448269</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2744,7 +2722,7 @@
         <v>0.42296706677507201</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2758,7 +2736,7 @@
         <v>0.621116706957764</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2772,7 +2750,7 @@
         <v>0.47455834421953103</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2780,7 +2758,7 @@
         <v>0.491859884706627</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2788,7 +2766,7 @@
         <v>0.46364684820718999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2796,7 +2774,7 @@
         <v>0.436681150320964</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2804,7 +2782,7 @@
         <v>0.504635445563963</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2812,7 +2790,7 @@
         <v>0.57167717918355199</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2820,7 +2798,7 @@
         <v>0.39533362614611101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2828,7 +2806,7 @@
         <v>0.45094826492640999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2836,7 +2814,7 @@
         <v>0.39179386511477698</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2844,7 +2822,7 @@
         <v>0.44943286322313702</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2852,7 +2830,7 @@
         <v>0.42099885579727903</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2860,7 +2838,7 @@
         <v>0.42736082609735598</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2868,7 +2846,7 @@
         <v>0.43317821777691201</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2876,7 +2854,7 @@
         <v>0.50357466437117104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2884,7 +2862,7 @@
         <v>0.37885921726592597</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2892,7 +2870,7 @@
         <v>0.40282611026668702</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2900,7 +2878,7 @@
         <v>0.44195577461778102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2908,7 +2886,7 @@
         <v>0.44750389571527099</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2916,7 +2894,7 @@
         <v>0.46942378892481401</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2924,7 +2902,7 @@
         <v>0.50441205965535096</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2932,7 +2910,7 @@
         <v>0.41116715896669098</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2940,7 +2918,7 @@
         <v>0.46648988670222002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2948,7 +2926,7 @@
         <v>0.45469812946112098</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2956,7 +2934,7 @@
         <v>0.47490398863192201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2964,7 +2942,7 @@
         <v>0.43270699425875098</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2972,7 +2950,7 @@
         <v>0.37351757719670697</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2980,7 +2958,7 @@
         <v>0.41429788228742798</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2988,7 +2966,7 @@
         <v>0.46946423988674701</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2996,7 +2974,7 @@
         <v>0.48901865744892298</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3004,7 +2982,7 @@
         <v>0.49153476764786302</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3012,7 +2990,7 @@
         <v>0.38337523509198901</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3020,7 +2998,7 @@
         <v>0.51992439976447702</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3028,7 +3006,7 @@
         <v>0.64911571560742198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3036,7 +3014,7 @@
         <v>0.61415853778044005</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3044,7 +3022,7 @@
         <v>0.51651625529575496</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3052,7 +3030,7 @@
         <v>0.53570510483723399</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3060,7 +3038,7 @@
         <v>0.52004303579451505</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3068,7 +3046,7 @@
         <v>0.50632865037596197</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3076,7 +3054,7 @@
         <v>0.46054601029845799</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3084,7 +3062,7 @@
         <v>0.417047038326472</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3092,7 +3070,7 @@
         <v>0.42478132259930101</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3100,7 +3078,7 @@
         <v>0.558173501013698</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3108,7 +3086,7 @@
         <v>0.446883547010202</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3116,7 +3094,7 @@
         <v>0.54870344785695102</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3124,7 +3102,7 @@
         <v>0.35718836915748398</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3132,7 +3110,7 @@
         <v>0.382412864448269</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3140,7 +3118,7 @@
         <v>0.42296706677507201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3148,7 +3126,7 @@
         <v>0.621116706957764</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3156,7 +3134,7 @@
         <v>0.47455834421953103</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3164,7 +3142,7 @@
         <v>0.44577295679755402</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3172,7 +3150,7 @@
         <v>0.43568738490057501</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3180,7 +3158,7 @@
         <v>0.63339146075804797</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3188,7 +3166,7 @@
         <v>0.37512052202691798</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3196,7 +3174,7 @@
         <v>0.44679207953640798</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3204,7 +3182,7 @@
         <v>0.75634155544003001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3212,7 +3190,7 @@
         <v>0.44448667658662</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3220,7 +3198,7 @@
         <v>0.30534532975616402</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3228,7 +3206,7 @@
         <v>0.42839142000457198</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -3236,7 +3214,7 @@
         <v>0.49892552061874001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3244,7 +3222,7 @@
         <v>0.58140472988088698</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -3252,7 +3230,7 @@
         <v>0.48534909109184798</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3260,7 +3238,7 @@
         <v>0.36176415780710103</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3268,7 +3246,7 @@
         <v>0.72290642051984799</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3276,7 +3254,7 @@
         <v>0.460417110591606</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3284,7 +3262,7 @@
         <v>0.38480611239810902</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3292,7 +3270,7 @@
         <v>0.68100284655656596</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3300,7 +3278,7 @@
         <v>0.372590827549174</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3308,7 +3286,7 @@
         <v>0.33236355351846197</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3316,7 +3294,7 @@
         <v>0.42309415524459798</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3324,7 +3302,7 @@
         <v>0.50942586581004401</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>0</v>
       </c>
@@ -3332,7 +3310,7 @@
         <v>0.43263182791997601</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3340,7 +3318,7 @@
         <v>0.406618237000202</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3348,7 +3326,7 @@
         <v>0.55672662444703702</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3356,7 +3334,7 @@
         <v>0.57351769794604401</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3364,7 +3342,7 @@
         <v>0.49277425756736098</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3372,7 +3350,7 @@
         <v>0.56004873515394105</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3380,7 +3358,7 @@
         <v>0.41614051415990599</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3388,7 +3366,7 @@
         <v>0.55112990181987698</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3396,7 +3374,7 @@
         <v>0.42430828784472302</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3404,7 +3382,7 @@
         <v>0.55822361190666903</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3412,7 +3390,7 @@
         <v>0.55875943621413104</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3420,7 +3398,7 @@
         <v>0.67089674730596005</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3428,7 +3406,7 @@
         <v>0.50614330044663802</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3436,7 +3414,7 @@
         <v>0.65350222998131302</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3444,7 +3422,7 @@
         <v>0.50511844212314805</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3452,7 +3430,7 @@
         <v>0.66766700969083104</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3460,7 +3438,7 @@
         <v>0.55170889394503297</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3468,7 +3446,7 @@
         <v>0.44028490839627898</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3476,7 +3454,7 @@
         <v>0.38274069836279501</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3484,7 +3462,7 @@
         <v>0.55035137174127102</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3492,7 +3470,7 @@
         <v>0.759726455699819</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3500,7 +3478,7 @@
         <v>0.54315774174165199</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3508,7 +3486,7 @@
         <v>0.46495576888173601</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3516,7 +3494,7 @@
         <v>0.59745078118794404</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3524,7 +3502,7 @@
         <v>0.82110686590294701</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3532,7 +3510,7 @@
         <v>0.48936128313289301</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>0</v>
       </c>
@@ -3540,7 +3518,7 @@
         <v>0.42864831379983998</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3548,7 +3526,7 @@
         <v>0.40238748901674598</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3556,7 +3534,7 @@
         <v>0.77742526085739805</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3564,7 +3542,7 @@
         <v>0.528067721748811</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -3572,7 +3550,7 @@
         <v>0.67388860911569204</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3580,7 +3558,7 @@
         <v>0.52466561473647699</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3588,7 +3566,7 @@
         <v>0.38257346080445098</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3596,7 +3574,7 @@
         <v>0.50330871439109603</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3604,7 +3582,7 @@
         <v>0.47410945929277598</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3612,7 +3590,7 @@
         <v>0.43049577563760899</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3620,7 +3598,7 @@
         <v>0.74026410935675802</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -3628,7 +3606,7 @@
         <v>0.47713875333556599</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3636,7 +3614,7 @@
         <v>0.91224741095857098</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3644,7 +3622,7 @@
         <v>0.70614372306863504</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3652,7 +3630,7 @@
         <v>1.40377912285202</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3660,7 +3638,7 @@
         <v>0.40806813229573802</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -3668,7 +3646,7 @@
         <v>0.55884456435796803</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3676,7 +3654,7 @@
         <v>0.43060716671925497</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3684,7 +3662,7 @@
         <v>0.90100053421019699</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -3692,7 +3670,7 @@
         <v>0.50266512147618403</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3700,7 +3678,7 @@
         <v>0.55313826188648796</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -3708,7 +3686,7 @@
         <v>0.47397391838330799</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3716,7 +3694,7 @@
         <v>0.494076838912405</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3724,7 +3702,7 @@
         <v>0.49713541462187999</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3732,7 +3710,7 @@
         <v>0.51657844110241002</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -3740,7 +3718,7 @@
         <v>0.47102492251815398</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -3748,7 +3726,7 @@
         <v>0.42667315974631398</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -3756,7 +3734,7 @@
         <v>0.43263635601260803</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3764,7 +3742,7 @@
         <v>0.53504551266132605</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -3772,7 +3750,7 @@
         <v>0.58481227060428798</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -3780,7 +3758,7 @@
         <v>0.58418829942456796</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -3788,7 +3766,7 @@
         <v>0.423573529329132</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3796,7 +3774,7 @@
         <v>0.62282953350495496</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3804,7 +3782,7 @@
         <v>0.52526543608791998</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -3812,7 +3790,7 @@
         <v>0.49316971100006401</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -3820,7 +3798,7 @@
         <v>0.48048863634448902</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -3828,7 +3806,7 @@
         <v>0.53347969819151297</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -3836,7 +3814,7 @@
         <v>0.34357812987172998</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -3844,7 +3822,7 @@
         <v>0.73774769728470302</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -3852,7 +3830,7 @@
         <v>0.63329878579315801</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3860,7 +3838,7 @@
         <v>0.50289967668004398</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -3868,7 +3846,7 @@
         <v>0.60052505428575298</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -3876,7 +3854,7 @@
         <v>0.48778248813095998</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3884,7 +3862,7 @@
         <v>0.379149920820054</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -3892,7 +3870,7 @@
         <v>0.43536649406178102</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -3900,7 +3878,7 @@
         <v>0.39315923601179698</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3908,7 +3886,7 @@
         <v>0.44978514883814502</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -3916,7 +3894,7 @@
         <v>0.406292516196117</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>1</v>
       </c>
